--- a/output_graphs/senate_recipr_cp_gini_table.xlsx
+++ b/output_graphs/senate_recipr_cp_gini_table.xlsx
@@ -1274,35 +1274,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[3, 20]</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.369565</v>
+          <t>[2, 21]</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0.413043</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[14, 1, 8]</t>
+          <t>[13, 1, 9]</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.376812</v>
+        <v>0.347826</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 3, 1, 0, 1, 0, 0, 1, 1, 1, 1, 1, 2, 0, 1, 1, 1, 0, 1, 1, 1, 1, 0, 1, 1, 1, 0, 1]</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>0.413043</v>
+          <t>[0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 1, 1, 1, 2, 0, 1, 1, 1, 2, 1, 1, 1, 1, 0, 1, 1, 1, 0, 1]</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0.355072</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[1, 12, 2, 8]</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0.423913</v>
+          <t>[1, 10, 4, 8]</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.336957</v>
       </c>
     </row>
     <row r="23">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1321,27 +1321,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[7, 0, 4]</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>0.424242</v>
+          <t>[7, 0, 5]</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.388889</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 2, 0]</t>
+          <t>[1, 2, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 2, 0]</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0.693939</v>
+        <v>0.711111</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[0, 3, 2, 6]</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0.431818</v>
+          <t>[0, 3, 3, 6]</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0.375</v>
       </c>
     </row>
     <row r="24">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[2, 0]</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1399,27 +1399,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[1, 0, 2]</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>0.444444</v>
+          <t>[1, 0, 1]</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.333333</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>0.944444</v>
+        <v>0.9666670000000001</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 2]</t>
+          <t>[0, 0, 0, 2]</t>
         </is>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.583333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="26">
@@ -1430,23 +1430,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
+          <t>[2, 0]</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0.5</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[1, 0, 1]</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0.333333</v>
+          <t>[2, 0, 0]</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>0.666667</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[0, 0, 2, 0]</t>
+          <t>[0, 2, 0, 0]</t>
         </is>
       </c>
       <c r="I26" s="2" t="n">
